--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_219__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_219__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5417,97 +5417,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>1.71360969543457</c:v>
+                  <c:v>1.71361255645752</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.408208847045898</c:v>
+                  <c:v>-7.408202648162842</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.32530975341797</c:v>
+                  <c:v>74.32528686523438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6740057468414307</c:v>
+                  <c:v>0.6740160584449768</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93.04629516601562</c:v>
+                  <c:v>93.04627990722656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.8919637203216553</c:v>
+                  <c:v>-0.8919666409492493</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.134231761097908</c:v>
+                  <c:v>-0.1342229247093201</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.1341978907585144</c:v>
+                  <c:v>-0.134203776717186</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94.8218994140625</c:v>
+                  <c:v>94.82190704345703</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.03455650433897972</c:v>
+                  <c:v>0.03454913944005966</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>95.50611114501953</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6750823855400085</c:v>
+                  <c:v>0.675070583820343</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.967817902565002</c:v>
+                  <c:v>1.967814922332764</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>81.65561676025391</c:v>
+                  <c:v>81.65560913085938</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>94.19397735595703</c:v>
+                  <c:v>94.19398498535156</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>85.24834442138672</c:v>
+                  <c:v>85.24835205078125</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>74.29656982421875</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>93.15641021728516</c:v>
+                  <c:v>93.15640258789062</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.236721992492676</c:v>
+                  <c:v>6.236728191375732</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>96.02320098876953</c:v>
+                  <c:v>96.02320861816406</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.1365970969200134</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>86.91782379150391</c:v>
+                  <c:v>86.91781616210938</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.1459037661552429</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2155381441116333</c:v>
+                  <c:v>0.2155322581529617</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5166081786155701</c:v>
+                  <c:v>0.5166110992431641</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.3977554738521576</c:v>
+                  <c:v>0.3977437019348145</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.2770765125751495</c:v>
+                  <c:v>0.2770735621452332</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.08571008592844009</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>82.32750701904297</c:v>
+                  <c:v>82.32749938964844</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.2692941725254059</c:v>
+                  <c:v>0.2693000733852386</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>93.32826995849609</c:v>
+                  <c:v>93.32827758789062</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>92.64913177490234</c:v>
@@ -5516,16 +5516,16 @@
                   <c:v>-0.1233580186963081</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>85.80339050292969</c:v>
+                  <c:v>85.80338287353516</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>26.50795936584473</c:v>
+                  <c:v>26.50796318054199</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>94.54286193847656</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.6165897846221924</c:v>
+                  <c:v>0.6165868043899536</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>83.97750091552734</c:v>
@@ -5534,46 +5534,46 @@
                   <c:v>76.67182159423828</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>40.87355041503906</c:v>
+                  <c:v>40.87355804443359</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>96.40866851806641</c:v>
+                  <c:v>96.40867614746094</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.4643882811069489</c:v>
+                  <c:v>0.4643912315368652</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>76.52852630615234</c:v>
+                  <c:v>76.52853393554688</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>95.14204406738281</c:v>
+                  <c:v>95.14205169677734</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1788166165351868</c:v>
+                  <c:v>0.1788151413202286</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.860141038894653</c:v>
+                  <c:v>2.860146760940552</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>92.71417236328125</c:v>
+                  <c:v>92.71416473388672</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.27543306350708</c:v>
+                  <c:v>2.27541971206665</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.921702742576599</c:v>
+                  <c:v>1.921701312065125</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>96.17377471923828</c:v>
+                  <c:v>96.17378234863281</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>16.62298011779785</c:v>
+                  <c:v>16.62297821044922</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.970519542694092</c:v>
+                  <c:v>5.970504760742188</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>93.81142425537109</c:v>
+                  <c:v>93.81143188476562</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>88.75942993164062</c:v>
@@ -5588,61 +5588,61 @@
                   <c:v>95.96562194824219</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>94.41610717773438</c:v>
+                  <c:v>94.41609954833984</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.49450147151947</c:v>
+                  <c:v>1.494516134262085</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>92.13958740234375</c:v>
+                  <c:v>92.13959503173828</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.90042507648468</c:v>
+                  <c:v>1.900428056716919</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.175551652908325</c:v>
+                  <c:v>3.175560474395752</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>73.51092529296875</c:v>
+                  <c:v>73.51091766357422</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.08992526680231094</c:v>
+                  <c:v>-0.08992084860801697</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>94.60454559326172</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.16421078145504</c:v>
+                  <c:v>-0.1642166674137115</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>66.89249420166016</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.7907140254974365</c:v>
+                  <c:v>0.7907111048698425</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>95.28431701660156</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>95.29441070556641</c:v>
+                  <c:v>95.29440307617188</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>94.85823822021484</c:v>
+                  <c:v>94.85823059082031</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>93.40650177001953</c:v>
+                  <c:v>93.406494140625</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>95.06478118896484</c:v>
+                  <c:v>95.06477355957031</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.05463677272200584</c:v>
+                  <c:v>-0.05463382974267006</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>93.25490570068359</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>95.46636962890625</c:v>
+                  <c:v>95.46638488769531</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>91.37113189697266</c:v>
@@ -5651,19 +5651,19 @@
                   <c:v>92.06977844238281</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.2994602620601654</c:v>
+                  <c:v>0.2994661331176758</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>84.98996734619141</c:v>
+                  <c:v>84.98997497558594</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>94.26752471923828</c:v>
+                  <c:v>94.26753234863281</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>68.84309387207031</c:v>
+                  <c:v>68.84308624267578</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.1724746972322464</c:v>
+                  <c:v>-0.172470286488533</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>-5.458118915557861</c:v>
@@ -5672,19 +5672,19 @@
                   <c:v>93.64642333984375</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.204091787338257</c:v>
+                  <c:v>2.204090118408203</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>39.56607437133789</c:v>
+                  <c:v>39.56606674194336</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>95.36119842529297</c:v>
+                  <c:v>95.36119079589844</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.508045434951782</c:v>
+                  <c:v>1.508042454719543</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>93.60594177246094</c:v>
+                  <c:v>93.60594940185547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.71360969543457</v>
+        <v>1.71361255645752</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-7.408208847045898</v>
+        <v>-7.408202648162842</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -6443,7 +6443,7 @@
         <v>31.3344</v>
       </c>
       <c r="F4">
-        <v>74.32530975341797</v>
+        <v>74.32528686523438</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6740057468414307</v>
+        <v>0.6740160584449768</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -6507,7 +6507,7 @@
         <v>93.8986</v>
       </c>
       <c r="F6">
-        <v>93.04629516601562</v>
+        <v>93.04627990722656</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>48.757</v>
       </c>
       <c r="F7">
-        <v>-0.8919637203216553</v>
+        <v>-0.8919666409492493</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.134231761097908</v>
+        <v>-0.1342229247093201</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.1341978907585144</v>
+        <v>-0.134203776717186</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>90.36060000000001</v>
       </c>
       <c r="F10">
-        <v>94.8218994140625</v>
+        <v>94.82190704345703</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.03455650433897972</v>
+        <v>0.03454913944005966</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6750823855400085</v>
+        <v>0.675070583820343</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.967817902565002</v>
+        <v>1.967814922332764</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>77.4808</v>
       </c>
       <c r="F15">
-        <v>81.65561676025391</v>
+        <v>81.65560913085938</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>92.98990000000001</v>
       </c>
       <c r="F16">
-        <v>94.19397735595703</v>
+        <v>94.19398498535156</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6751,7 +6751,7 @@
         <v>80.1264</v>
       </c>
       <c r="F17">
-        <v>85.24834442138672</v>
+        <v>85.24835205078125</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>95.6887</v>
       </c>
       <c r="F19">
-        <v>93.15641021728516</v>
+        <v>93.15640258789062</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>6.236721992492676</v>
+        <v>6.236728191375732</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>98.4349</v>
       </c>
       <c r="F21">
-        <v>96.02320098876953</v>
+        <v>96.02320861816406</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>93.91419999999999</v>
       </c>
       <c r="F23">
-        <v>86.91782379150391</v>
+        <v>86.91781616210938</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.2155381441116333</v>
+        <v>0.2155322581529617</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.5166081786155701</v>
+        <v>0.5166110992431641</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.3977554738521576</v>
+        <v>0.3977437019348145</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.2770765125751495</v>
+        <v>0.2770735621452332</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>77.453</v>
       </c>
       <c r="F30">
-        <v>82.32750701904297</v>
+        <v>82.32749938964844</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0.2692941725254059</v>
+        <v>0.2693000733852386</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>94.3853</v>
       </c>
       <c r="F32">
-        <v>93.32826995849609</v>
+        <v>93.32827758789062</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>97.8249</v>
       </c>
       <c r="F35">
-        <v>85.80339050292969</v>
+        <v>85.80338287353516</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>26.50795936584473</v>
+        <v>26.50796318054199</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.6165897846221924</v>
+        <v>0.6165868043899536</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>69.4635</v>
       </c>
       <c r="F41">
-        <v>40.87355041503906</v>
+        <v>40.87355804443359</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>94.5993</v>
       </c>
       <c r="F42">
-        <v>96.40866851806641</v>
+        <v>96.40867614746094</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.4643882811069489</v>
+        <v>0.4643912315368652</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>97.666</v>
       </c>
       <c r="F44">
-        <v>76.52852630615234</v>
+        <v>76.52853393554688</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>97.0868</v>
       </c>
       <c r="F45">
-        <v>95.14204406738281</v>
+        <v>95.14205169677734</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.1788166165351868</v>
+        <v>0.1788151413202286</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>2.860141038894653</v>
+        <v>2.860146760940552</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>96.9224</v>
       </c>
       <c r="F48">
-        <v>92.71417236328125</v>
+        <v>92.71416473388672</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>2.27543306350708</v>
+        <v>2.27541971206665</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.921702742576599</v>
+        <v>1.921701312065125</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>95.00530000000001</v>
       </c>
       <c r="F51">
-        <v>96.17377471923828</v>
+        <v>96.17378234863281</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>81.8018</v>
       </c>
       <c r="F52">
-        <v>16.62298011779785</v>
+        <v>16.62297821044922</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>5.970519542694092</v>
+        <v>5.970504760742188</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>93.3826</v>
       </c>
       <c r="F54">
-        <v>93.81142425537109</v>
+        <v>93.81143188476562</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>94.0821</v>
       </c>
       <c r="F59">
-        <v>94.41610717773438</v>
+        <v>94.41609954833984</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.49450147151947</v>
+        <v>1.494516134262085</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>91.2393</v>
       </c>
       <c r="F61">
-        <v>92.13958740234375</v>
+        <v>92.13959503173828</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.90042507648468</v>
+        <v>1.900428056716919</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>3.175551652908325</v>
+        <v>3.175560474395752</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>73.51092529296875</v>
+        <v>73.51091766357422</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>-0.08992526680231094</v>
+        <v>-0.08992084860801697</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-0.16421078145504</v>
+        <v>-0.1642166674137115</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.7907140254974365</v>
+        <v>0.7907111048698425</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>98.4734</v>
       </c>
       <c r="F71">
-        <v>95.29441070556641</v>
+        <v>95.29440307617188</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>98.3015</v>
       </c>
       <c r="F72">
-        <v>94.85823822021484</v>
+        <v>94.85823059082031</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>89.2407</v>
       </c>
       <c r="F73">
-        <v>93.40650177001953</v>
+        <v>93.406494140625</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>66.9032</v>
       </c>
       <c r="F74">
-        <v>95.06478118896484</v>
+        <v>95.06477355957031</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>-0.05463677272200584</v>
+        <v>-0.05463382974267006</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>98.31310000000001</v>
       </c>
       <c r="F77">
-        <v>95.46636962890625</v>
+        <v>95.46638488769531</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.2994602620601654</v>
+        <v>0.2994661331176758</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>87.7663</v>
       </c>
       <c r="F81">
-        <v>84.98996734619141</v>
+        <v>84.98997497558594</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>94.37</v>
       </c>
       <c r="F82">
-        <v>94.26752471923828</v>
+        <v>94.26753234863281</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>61.4721</v>
       </c>
       <c r="F83">
-        <v>68.84309387207031</v>
+        <v>68.84308624267578</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.1724746972322464</v>
+        <v>-0.172470286488533</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>2.204091787338257</v>
+        <v>2.204090118408203</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>39.56607437133789</v>
+        <v>39.56606674194336</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>97.99339999999999</v>
       </c>
       <c r="F89">
-        <v>95.36119842529297</v>
+        <v>95.36119079589844</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.508045434951782</v>
+        <v>1.508042454719543</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>94.4374</v>
       </c>
       <c r="F91">
-        <v>93.60594177246094</v>
+        <v>93.60594940185547</v>
       </c>
     </row>
     <row r="92" spans="1:6">
